--- a/results_1st_turn/result.xlsx
+++ b/results_1st_turn/result.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>ceo_name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>directors</t>
+  </si>
+  <si>
+    <t>commissioners</t>
   </si>
   <si>
     <t>company</t>
@@ -25,13 +28,64 @@
     <t>sources</t>
   </si>
   <si>
-    <t>Garibaldi Thohir</t>
-  </si>
-  <si>
-    <t>ID_ADRO_AR_2022</t>
-  </si>
-  <si>
-    <t>[2, 140, 141, 502]</t>
+    <t>['Dr. Bernd Scheifele', 'Dr. Dominik von Achten', 'Dr. Lorenz Näger', 'Kevin Gluskie', 'Hakan Gurdal', 'Ernest Jelito', 'Jon Morrish']</t>
+  </si>
+  <si>
+    <t>['Ola Källenius', 'Martin Daum', 'Renata Jungo Brüngger', 'Wilfried Porth', 'Markus Schäfer', 'Britta Seeger', 'Hubertus Troska', 'Harald Wilhelm']</t>
+  </si>
+  <si>
+    <t>['Dr. Rolf Martin Schmitz', 'Dr. Markus Krebber', 'Dr. Michael Müller', 'Zvezdana Seeger']</t>
+  </si>
+  <si>
+    <t>['Joe Kaeser', 'Dr. Roland Busch', 'Lisa Davis', 'Klaus Helmrich', 'Janina Kugel', 'Cedrik Neike', 'Michael Sen', 'Ralf P. Thomas', 'Matthias Rebellius', 'Judith Wiese']</t>
+  </si>
+  <si>
+    <t>['Oliver Bäte', 'Sergio Balbinot', 'Jacqueline Hunt', 'Dr. Barbara Karuth-Zelle', 'Dr. Christof Mascher', 'Niran Peiris', 'Klaus-Peter Röhler', 'Ivan de la Sota', 'Giulio Terzariol', 'Dr. Günther Thallinger', 'Dr. Axel Theis', 'Christopher Townsend', 'Renate Wagner']</t>
+  </si>
+  <si>
+    <t>['Fritz-Jürgen Heckmann', 'Heinz Schmitt', 'Barbara Breuninger', 'Birgit Jochens', 'Ludwig Merckle', 'Tobias Merckle', 'Luka Mucic', 'Dr. Ines Ploss', 'Peter Riedel', 'Werner Schraeder', 'Margret Suckale', 'Univ.-Prof. Dr. Marion Weissenberger-Eibl']</t>
+  </si>
+  <si>
+    <t>['Dr. Manfred Bischoff', 'Michael Brecht', 'Dr. Paul Achleitner', 'Bader M. Al Saad', 'Sari Baldauf', 'Michael Bettag', 'Dr. Clemens Börsig', 'Raymond Curry', 'Dr. Jürgen Hambrecht', 'Michael Häberle', 'Petraea Heynike', 'Timotheus Höttges', 'Joe Kaeser', 'Ergun Lümali', 'Dr. Bernd Pischetsrieder', 'Elke Tönjes-Werner', 'Sibylle Wankel', 'Dr. Frank Weber', 'Marie Wieck', 'Dr. Sabine Zimmer', 'Roman Zitzelsberger']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['Jim Hagemann Snabe', 'Birgit Steinborn', 'Werner Wenning', 'Werner Brandt', 'Michael Diekmann', 'Bettina Haller', 'Robert Kensbock', 'Harald Kern', 'Jürgen Kerner', 'Nicola Leibinger-Kammüller', 'Benoît Potier', 'Hagen Reimer', 'Norbert Reithofer']</t>
+  </si>
+  <si>
+    <t>['Michael Diekmann', 'Jim Hagemann Snabe', 'Gabriele Burkhardt-Berg', 'Sophie Boissard', 'Christine Bosse', 'Dr. Friedrich Eichiner', 'Jean-Claude Le Goaër', 'Martina Grundler', 'Herbert Hainer', 'Godfrey Robert Hayward', 'Frank Kirsch', 'Jürgen Lawrenz']</t>
+  </si>
+  <si>
+    <t>DE_HEIG_AR_2020</t>
+  </si>
+  <si>
+    <t>DE_MBG_AR_2020</t>
+  </si>
+  <si>
+    <t>DE_RWE_AR_2020</t>
+  </si>
+  <si>
+    <t>DE_SIE_AR_2020</t>
+  </si>
+  <si>
+    <t>DE_SLV_AR_2020</t>
+  </si>
+  <si>
+    <t>[100, 101, 102, 103]</t>
+  </si>
+  <si>
+    <t>[1, 21, 13, 22]</t>
+  </si>
+  <si>
+    <t>[10, 4, 12, 231]</t>
+  </si>
+  <si>
+    <t>[187, 188, 189, 190]</t>
+  </si>
+  <si>
+    <t>[40, 10, 11, 12]</t>
   </si>
 </sst>
 </file>
@@ -389,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,16 +459,78 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/results_1st_turn/result.xlsx
+++ b/results_1st_turn/result.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>ceo_name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+  <si>
+    <t>bod</t>
+  </si>
+  <si>
+    <t>boc</t>
   </si>
   <si>
     <t>company</t>
@@ -25,13 +28,121 @@
     <t>sources</t>
   </si>
   <si>
-    <t>Garibaldi Thohir</t>
-  </si>
-  <si>
-    <t>ID_ADRO_AR_2022</t>
-  </si>
-  <si>
-    <t>[2, 140, 141, 502]</t>
+    <t>[{'name': 'Tubagus Farash Akbar F', 'position': 'President Director'}, {'name': 'Vincentius Dicky Haryanto', 'position': 'Director'}, {'name': 'Ishak Reza', 'position': 'Director'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'Julien Pierre Combaret', 'position': 'Director'}, {'name': 'Liani Chandra', 'position': 'Director'}, {'name': 'Fenni Sutanto', 'position': 'Director'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'Chung Tae Sung', 'position': 'President Director (also serves as Finance Director)'}, {'name': 'Chun Soo Woo', 'position': 'Director'}, {'name': 'Cahya Wulandari, S.H.', 'position': 'Director'}, {'name': 'Suwardi', 'position': 'Director'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'Idot Supriadi', 'position': 'President Director'}, {'name': 'Soeharsono Tjatur Nugroho', 'position': 'Director'}, {'name': 'David Widjaja', 'position': 'Director'}, {'name': 'Djoko Prabowo', 'position': 'Director'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'I Dewa Made Susila', 'position': 'President Director'}, {'name': 'Swandajani Gunadi', 'position': 'Director'}, {'name': 'Niko Kurniawan Bonggowarsito', 'position': 'Director'}, {'name': 'Harry Latif', 'position': 'Director'}, {'name': 'Jin Yoshida', 'position': 'Director'}, {'name': 'Denny Riza Farib', 'position': 'Director'}]</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[{'name': 'Rachmat Harsono', 'position': 'President Director'}, {'name': 'Ferryawan Utomo', 'position': 'Vice President Director'}, {'name': 'Imelda Mulyani Harsono', 'position': 'Director'}, {'name': 'Nini Liemijanto', 'position': 'Director'}, {'name': 'Budi Susanto', 'position': 'Director'}, {'name': 'Djanarko Tjandra', 'position': 'Director'}, {'name': 'Agus Purnomo', 'position': 'Director'}, {'name': 'Octavianus Santoso Rastanto', 'position': 'Director'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'Ida Bagus Ketut Subagia', 'position': 'President Director'}, {'name': 'Dedy Hendrianto', 'position': 'Director of Retail Agri and Funding'}, {'name': 'Bhimo Wikan Hantoro', 'position': 'Director of Digital and Operations'}, {'name': 'Danar Widyantoro', 'position': 'Director of Enterprise Risk Management, Compliance &amp; Human Resources'}, {'name': 'Rustarti Suri Pertiwi', 'position': 'Director of Finance'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'Cha Jae Young', 'position': 'President Director'}, {'name': 'Lee Dae Sung', 'position': 'Director'}, {'name': 'Maria Cortilia Vera Afianti', 'position': 'Director'}, {'name': 'Edwin Rudianto', 'position': 'Director'}, {'name': 'Alexander Frans Rori', 'position': 'Compliance Director'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'Calvin Lutvi', 'position': 'President Director'}, {'name': 'Pandu Andakara', 'position': 'Director'}, {'name': 'Mohammad Adil Triansyah', 'position': 'Director'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'Aldo Rambie', 'position': 'Independent Commissioner'}, {'name': 'Rudy Setia Laksmana', 'position': 'Commissioner'}, {'name': 'Mahendra Agakhan T', 'position': 'Commissioner'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'Abhishek Bhatia', 'position': 'President Commissioner'}, {'name': 'Herwan Ng', 'position': 'Independent Commissioner'}, {'name': 'Francisco Noriega Malave', 'position': 'Independent Commissioner'}, {'name': 'Saurabh Narayan Agarwal', 'position': 'Commissioner'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'Lim Sung Pil', 'position': 'President Commissioner'}, {'name': 'Seok Jin Kim', 'position': 'Independent Commissioner'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'Frans Kesuma', 'position': 'President Commissioner'}, {'name': 'Iwan Hadiantoro', 'position': 'Commissioner'}, {'name': 'Buntoro Muljono', 'position': 'Independent Commissioner'}, {'name': 'Wiltarsa Halim', 'position': 'Independent Commissioner'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'Daisuke Ejima', 'position': 'President Commissioner'}, {'name': 'Krisna Wijaya', 'position': 'Independent Commissioner'}, {'name': 'Manggi Taruna Habir', 'position': 'Independent Commissioner'}, {'name': 'Eng Heng Nee Philip', 'position': 'Commissioner'}, {'name': 'Congsin Congcar', 'position': 'Commissioner'}, {'name': 'Hafid Hadeli', 'position': 'Commissioner'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'Heyzer Harsono', 'position': 'President Commissioner'}, {'name': 'Rasid Harsono', 'position': 'Vice President Commissioner'}, {'name': 'Setyo Wahono', 'position': 'Vice President Commissioner'}, {'name': 'Michael W. P. Soeryadjaya', 'position': 'Commissioner'}, {'name': 'Atiff Ibrahim Gill', 'position': 'Commissioner'}, {'name': 'Sutanto', 'position': 'Independent Commissioner'}, {'name': 'Robiyanto', 'position': 'Independent Commissioner'}, {'name': 'Hans-Gerd Wienands', 'position': 'Independent Commissioner'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'Muhamad Sidik Heruwibowo', 'position': 'President Commissioner'}, {'name': 'Eko B. Supriyanto', 'position': 'Independent Commissioner'}, {'name': 'Achmad F.C Barir', 'position': 'Commissioner'}, {'name': 'Retno Wahyuni Wijayanti', 'position': 'Independent Commissioner'}, {'name': 'Johanes Kuntjoro Adisardjono', 'position': 'Independent Commissioner'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'Taufik Hakim', 'position': 'President Commissioner (Independent)'}, {'name': 'Kang Ho Chang', 'position': 'Commissioner'}, {'name': 'Joni Swastanto', 'position': 'Independent Commissioner'}, {'name': 'Damal Bayu Utama', 'position': 'Independent Commissioner'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'Mohammad Rafil Perdana', 'position': 'President Commissioner'}, {'name': 'Endru Adhikara', 'position': 'Commissioner'}, {'name': 'Ahmad Ali Fahmi', 'position': 'Independent Commissioner'}, {'name': 'Megah Supratiwi', 'position': 'Independent Commissioner'}]</t>
+  </si>
+  <si>
+    <t>ID_ABBA_IR_2023</t>
+  </si>
+  <si>
+    <t>ID_ABDA_IR_2023</t>
+  </si>
+  <si>
+    <t>ID_ACRO_IR_2023</t>
+  </si>
+  <si>
+    <t>ID_ACST_IR_2023</t>
+  </si>
+  <si>
+    <t>ID_ADMF_IR_2023</t>
+  </si>
+  <si>
+    <t>ID_AEGS_IR_2023</t>
+  </si>
+  <si>
+    <t>ID_AGII_IR_2023</t>
+  </si>
+  <si>
+    <t>ID_AGRO_IR_2023</t>
+  </si>
+  <si>
+    <t>ID_AGRS_IR_2023</t>
+  </si>
+  <si>
+    <t>ID_AIMS_IR_2023</t>
+  </si>
+  <si>
+    <t>[128, 33, 38, 136, 49, 51]</t>
+  </si>
+  <si>
+    <t>[79, 111, 81, 117, 87, 215]</t>
+  </si>
+  <si>
+    <t>[133, 106, 111, 23, 186, 187]</t>
+  </si>
+  <si>
+    <t>[44, 77, 78, 79, 149, 55, 158]</t>
+  </si>
+  <si>
+    <t>[288, 290, 291, 48, 273, 276, 311, 281]</t>
+  </si>
+  <si>
+    <t>[3, 165, 74, 204, 14, 243, 119, 157]</t>
+  </si>
+  <si>
+    <t>[65, 161, 164, 167, 169, 154, 155]</t>
+  </si>
+  <si>
+    <t>[321, 353, 389, 390, 111, 115, 117]</t>
+  </si>
+  <si>
+    <t>[65, 132, 167, 137, 155, 147, 153, 27]</t>
+  </si>
+  <si>
+    <t>[103, 42, 43, 46, 51, 116]</t>
   </si>
 </sst>
 </file>
@@ -389,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,16 +516,148 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
